--- a/Dossier/dictionnaire de donnée.xlsx
+++ b/Dossier/dictionnaire de donnée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\Portfolio Paul Berthelot\Dossier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B65EAE-FB91-4B81-9430-6E09FD69EFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E88256C-D5E9-439D-89C7-B2263B567F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6FCCB02-1440-4D2E-8C39-0CE3C91F6732}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{C6FCCB02-1440-4D2E-8C39-0CE3C91F6732}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Variable</t>
   </si>
@@ -78,7 +78,22 @@
     <t>elle contient les images</t>
   </si>
   <si>
-    <t>XXXXXXXXXXXXXXXXXXXXXXXXX</t>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>icône téléchargement</t>
+  </si>
+  <si>
+    <t>icône code slash</t>
+  </si>
+  <si>
+    <t>elle contient mon cv</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXXXXXXXXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -464,7 +479,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -514,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -525,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -540,14 +555,26 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>

--- a/Dossier/dictionnaire de donnée.xlsx
+++ b/Dossier/dictionnaire de donnée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E88256C-D5E9-439D-89C7-B2263B567F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C042145-8907-4C63-BF4C-5144A7916A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{C6FCCB02-1440-4D2E-8C39-0CE3C91F6732}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6FCCB02-1440-4D2E-8C39-0CE3C91F6732}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Variable</t>
   </si>
@@ -94,6 +94,36 @@
   </si>
   <si>
     <t>XXXXXXXXXXXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>sous lignage h2</t>
+  </si>
+  <si>
+    <t>style de sous lignage pour h2</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>barre bleu pour le haut du site</t>
+  </si>
+  <si>
+    <t>ajout graphique sur la navbar</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>ajustement du  texte</t>
+  </si>
+  <si>
+    <t>Dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Par Paul Berthelot</t>
   </si>
 </sst>
 </file>
@@ -157,11 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +510,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,132 +520,144 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>

--- a/Dossier/dictionnaire de donnée.xlsx
+++ b/Dossier/dictionnaire de donnée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C042145-8907-4C63-BF4C-5144A7916A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E5A65F-C2F5-43B6-B3F4-7C9CB1C4FEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6FCCB02-1440-4D2E-8C39-0CE3C91F6732}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Variable</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Par Paul Berthelot</t>
+  </si>
+  <si>
+    <t>parag</t>
+  </si>
+  <si>
+    <t>ajustement du texte input</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,9 +661,15 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>

--- a/Dossier/dictionnaire de donnée.xlsx
+++ b/Dossier/dictionnaire de donnée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E5A65F-C2F5-43B6-B3F4-7C9CB1C4FEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64502564-FB2F-4A04-8299-7E2C89759AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6FCCB02-1440-4D2E-8C39-0CE3C91F6732}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dossier/dictionnaire de donnée.xlsx
+++ b/Dossier/dictionnaire de donnée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64502564-FB2F-4A04-8299-7E2C89759AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0551F258-DED6-45D1-99FA-4F8188639DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6FCCB02-1440-4D2E-8C39-0CE3C91F6732}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Variable</t>
   </si>
@@ -87,9 +87,6 @@
     <t>icône téléchargement</t>
   </si>
   <si>
-    <t>icône code slash</t>
-  </si>
-  <si>
     <t>elle contient mon cv</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>ajustement du texte input</t>
+  </si>
+  <si>
+    <t>icône profil</t>
+  </si>
+  <si>
+    <t>permet de se login  à la BD</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,13 +533,13 @@
     </row>
     <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -569,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -580,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -591,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -613,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -621,54 +624,54 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
